--- a/medicine/Mort/Cimetière_du_Perreux-sur-Marne/Cimetière_du_Perreux-sur-Marne.xlsx
+++ b/medicine/Mort/Cimetière_du_Perreux-sur-Marne/Cimetière_du_Perreux-sur-Marne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Perreux-sur-Marne</t>
+          <t>Cimetière_du_Perreux-sur-Marne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Perreux-sur-Marne est un cimetière municipal situé au Perreux-sur-Marne dans le département du Val-de-Marne. Ce grand cimetière rectangulaire est séparé par une rue. Il se situe contre le cimetière de Nogent-sur-Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Perreux-sur-Marne</t>
+          <t>Cimetière_du_Perreux-sur-Marne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Perreux-sur-Marne se distingue par ses allées rectilignes dont certaines sont bordées d'arbres et quelques chapelles funéraires (comme celle de la famille Dupuis) de la fin du XIXe siècle. Quelques monuments possèdent des médaillons de bronze, comme la tombe de Charles Ollier (mort en 1897), ancien maire du Perreux, ou celle de Louis Lemancel (1818-1896), ancien maire de Nogent-sur-Marne[1]. Des membres de la célèbre famille du cirque, les Fratellini, reposent dans ce cimetière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Perreux-sur-Marne se distingue par ses allées rectilignes dont certaines sont bordées d'arbres et quelques chapelles funéraires (comme celle de la famille Dupuis) de la fin du XIXe siècle. Quelques monuments possèdent des médaillons de bronze, comme la tombe de Charles Ollier (mort en 1897), ancien maire du Perreux, ou celle de Louis Lemancel (1818-1896), ancien maire de Nogent-sur-Marne. Des membres de la célèbre famille du cirque, les Fratellini, reposent dans ce cimetière.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Perreux-sur-Marne</t>
+          <t>Cimetière_du_Perreux-sur-Marne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Lhopital Navarre (1835-1909), fondateur du Perreux-sur-Marne et 1er maire de la commune.
-Georges Agniel (1924-2012), un des découvreur de la grotte de Lascaux[2]
-Armand Brillard (1918-1970), médecin, fondateur de l'hôpital de Nogent-sur-Marne[3]
+Georges Agniel (1924-2012), un des découvreur de la grotte de Lascaux
+Armand Brillard (1918-1970), médecin, fondateur de l'hôpital de Nogent-sur-Marne
 Jean Deutsch (1901-1963), pianiste et compositeur
 Auguste Dubois (1833-1907), artiste dramatique
 José Dubois (1883-1957), acteur de théâtre
@@ -554,9 +570,9 @@
 Famille Fratellini: Albert (1885-1961), François (1879-1951), Paul (1877-1940), Tino Fratellini (1947-1994)
 Michel Giraud (1929-2011), maire du Perreux, ancien ministre du Travail
 Moustache (né François Galépidès, 1929-1987), comédien et batteur de jazz
-Charles Pimbel (1848-1929), maire de Nogent-sur-Marne de 1886 à 1893[4]
+Charles Pimbel (1848-1929), maire de Nogent-sur-Marne de 1886 à 1893
 			Chapelle Benoist
-			Tombe de la famille Cornu[5]
+			Tombe de la famille Cornu
 			Chapelle Dupuis
 			Chapelle Joune
 			Sépulture Henri Lhopital Navarre
